--- a/2019_Combie_LoadsData_WY2018/Model Stats_rloadest/1_wy2018/1_pTHg_Model Results.xlsx
+++ b/2019_Combie_LoadsData_WY2018/Model Stats_rloadest/1_wy2018/1_pTHg_Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2019_Combie_LoadsData_WY2018\Model Stats_rloadest\1_wy2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADE263-E27E-40A7-8383-C922D03371C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA4078-0471-4CA4-BE26-124EFA08276F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24870" xr2:uid="{1DB9D86E-2E74-420B-9D3C-E44AD5ABCFD3}"/>
   </bookViews>
@@ -18,10 +18,15 @@
     <sheet name="CR1-D" sheetId="3" r:id="rId3"/>
     <sheet name="CR8" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="635">
   <si>
     <t>closest to 1</t>
   </si>
@@ -860,6 +865,1119 @@
   </si>
   <si>
     <t>pTHg wy 2018</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm1 &lt;- loadReg(pTHg ~model(1), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(1), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The minimum spacing between daily loads is 4 days. The time between observations should be at least  7 days to avoid autocorrelation issues.</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 14</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2018.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 5.6768</t>
+  </si>
+  <si>
+    <t>(Intercept)   -6.239     0.2692 -23.181   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ            1.387     0.2816   4.926   1e-04</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9961</t>
+  </si>
+  <si>
+    <t>R-squared: 66.91 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 15.48 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.011</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min 25% 50%  75%  90%  95%  Max</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.01 0.03 0.03</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.01 0.03 0.06 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -18.73 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1293</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm2 &lt;- loadReg(pTHg ~model(2), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(2), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm2</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.5047     0.3953 -16.4541  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3874     0.2834   4.8952  0.0001</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2904     0.3152   0.9212  0.3077</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.009</t>
+  </si>
+  <si>
+    <t>R-squared: 69.28 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 16.53 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t>P-value: 0.0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0267</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3523</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.01 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -9.967 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: -0.0734</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(3), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm3</t>
+  </si>
+  <si>
+    <t>(Intercept)   -6.260     0.2709 -23.1099  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ            1.320     0.2912   4.5336  0.0001</t>
+  </si>
+  <si>
+    <t>DECTIME       -1.043     1.0870  -0.9596  0.2887</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.003</t>
+  </si>
+  <si>
+    <t>R-squared: 69.47 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 16.61 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t>P-value: 0.0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0565</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3105</t>
+  </si>
+  <si>
+    <t>lnQ     1.062</t>
+  </si>
+  <si>
+    <t>DECTIME 1.062</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.03 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -17.36 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1256</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm4 &lt;- loadReg(pTHg ~model(4), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(4), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error   z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.22124     0.3012 -20.65162  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.41113     0.3188   4.42667  0.0001</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.12754     0.4201  -0.30358  0.7201</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.04178     0.4333  -0.09644  0.9092</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.184</t>
+  </si>
+  <si>
+    <t>R-squared: 67.24 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 15.62 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t>P-value: 0.0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0136</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2711</t>
+  </si>
+  <si>
+    <t>lnQ         1.078</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.043</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 1.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -18.68 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.131</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm5 &lt;- loadReg(pTHg ~model(5), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(5), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm5</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.4438     0.4171 -15.4509  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3371     0.3015   4.4351  0.0001</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2073     0.3486   0.5946  0.4855</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.7783     1.2056  -0.6456  0.4496</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.065</t>
+  </si>
+  <si>
+    <t>R-squared: 70.51 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 17.1 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t>P-value: 0.0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.027</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3702</t>
+  </si>
+  <si>
+    <t>lnQ     1.072</t>
+  </si>
+  <si>
+    <t>lnQ2    1.158</t>
+  </si>
+  <si>
+    <t>DECTIME 1.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -15.6 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.08808</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(6), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm6</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.5136     0.4385 -14.8557  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.4302     0.3218   4.4444  0.0001</t>
+  </si>
+  <si>
+    <t>lnQ2          0.3378     0.3656   0.9239  0.2601</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.1266     0.4232  -0.2992  0.7097</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.1867     0.4638  -0.4025  0.6172</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.201</t>
+  </si>
+  <si>
+    <t>R-squared: 70.07 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 16.89 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t>P-value: 0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0241</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2902</t>
+  </si>
+  <si>
+    <t>lnQ         1.083</t>
+  </si>
+  <si>
+    <t>lnQ2        1.130</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 1.174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -10.53 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: -0.05423</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(7), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.1851     0.2513 -24.6110  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2359     0.2759   4.4799  0.0001</t>
+  </si>
+  <si>
+    <t>DECTIME      -5.0388     2.1637  -2.3288  0.0102</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.2719     0.3896   0.6979  0.3904</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.6048     0.7620  -2.1061  0.0179</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8207</t>
+  </si>
+  <si>
+    <t>R-squared: 79.56 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 22.22 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0245</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0871</t>
+  </si>
+  <si>
+    <t>lnQ         1.165</t>
+  </si>
+  <si>
+    <t>DECTIME     5.140</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.293</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.638</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.02 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -22.46 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.7754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.2918</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm8 &lt;- loadReg(pTHg ~model(8), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(8), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm8</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.3766     0.3790 -16.8237  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2581     0.2860   4.3983  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2190     0.3165   0.6919  0.3670</t>
+  </si>
+  <si>
+    <t>DECTIME      -4.7585     2.2657  -2.1003  0.0132</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.2503     0.4026   0.6216  0.4164</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.6118     0.7851  -2.0529  0.0149</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8712</t>
+  </si>
+  <si>
+    <t>R-squared: 80.71 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 23.04 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0081</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0199</t>
+  </si>
+  <si>
+    <t>lnQ         1.180</t>
+  </si>
+  <si>
+    <t>lnQ2        1.167</t>
+  </si>
+  <si>
+    <t>DECTIME     5.310</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -19.9 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.2682</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_CR1D, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-In")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(9), data = pTHg_CR1D, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR1Dm9</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.7413     1.5757 -6.1822  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2178     0.2368  5.1433  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.0241     0.2760  0.0873  0.9018</t>
+  </si>
+  <si>
+    <t>DECTIME      -7.5889     2.2768 -3.3332  0.0003</t>
+  </si>
+  <si>
+    <t>DECTIME2     45.6176    20.9381  2.1787  0.0071</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   4.2915     1.8844  2.2774  0.0053</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.6438     0.6481 -2.5364  0.0025</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.5933</t>
+  </si>
+  <si>
+    <t>R-squared: 88.5 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 30.29 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0233</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.2362</t>
+  </si>
+  <si>
+    <t>lnQ          1.187</t>
+  </si>
+  <si>
+    <t>lnQ2         1.304</t>
+  </si>
+  <si>
+    <t>DECTIME      7.873</t>
+  </si>
+  <si>
+    <t>DECTIME2    39.079</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 41.857</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  4.641</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.93 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.3833</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 14; Period of record: 2017-11-02 to 2018-08-27</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m1 &lt;- loadReg(pTHg ~model(1), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(1), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m1</t>
+  </si>
+  <si>
+    <t>Station: Combie-Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 4.4808</t>
+  </si>
+  <si>
+    <t>(Intercept)   -7.700     0.2715 -28.357       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.249     0.1261   9.905       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.861</t>
+  </si>
+  <si>
+    <t>R-squared: 89.1 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 31.03 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0384</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3189</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.01 0.03 0.04 0.04</t>
+  </si>
+  <si>
+    <t>Obs   0   0 0.00 0.01 0.02 0.06 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -4.127 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: -0.01234</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m2 &lt;- loadReg(pTHg ~model(2), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(2), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m2</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.53361    0.48340 -15.5848  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.24935    0.13069   9.5598  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03585    0.08483  -0.4226  0.6349</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9243</t>
+  </si>
+  <si>
+    <t>R-squared: 89.28 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 31.26 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0486</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2505</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.01 0.02 0.03 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -13.3 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1012</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m3 &lt;- loadReg(pTHg ~model(3), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(3), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.6936     0.2856 -26.9424  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2361     0.1534   8.0594  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2003     1.1885  -0.1685  0.8493</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9368</t>
+  </si>
+  <si>
+    <t>R-squared: 89.13 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 31.07 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0288</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3403</t>
+  </si>
+  <si>
+    <t>lnQ     1.359</t>
+  </si>
+  <si>
+    <t>DECTIME 1.359</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.01 0.03 0.03 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.466 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: -0.01875</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m4 &lt;- loadReg(pTHg ~model(4), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(4), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.7082     0.2872 -26.8432  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2907     0.1587   8.1330  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.1184     0.3915   0.3025  0.7211</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.3287     0.4391  -0.7485  0.3823</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9603</t>
+  </si>
+  <si>
+    <t>R-squared: 89.87 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 32.06 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2491</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1932</t>
+  </si>
+  <si>
+    <t>lnQ         1.419</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.116</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 1.316</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.01 0.02 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.163 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.01162</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m5 &lt;- loadReg(pTHg ~model(5), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(5), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m5</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.53682    0.50795 -14.83775  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.24161    0.16036   7.74249  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03438    0.09032  -0.38069  0.6536</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.11684    1.25686  -0.09296  0.9124</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.016</t>
+  </si>
+  <si>
+    <t>G-squared: 31.27 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0373</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2673</t>
+  </si>
+  <si>
+    <t>lnQ     1.370</t>
+  </si>
+  <si>
+    <t>lnQ2    1.031</t>
+  </si>
+  <si>
+    <t>DECTIME 1.401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.31 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.09297</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m6 &lt;- loadReg(pTHg ~model(6), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(6), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m6</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.52938    0.52151 -14.4377  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.28362    0.16655   7.7071  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03887    0.09274  -0.4191  0.6029</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.15696    0.41895   0.3747  0.6416</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.30776    0.46109  -0.6675  0.4108</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.047</t>
+  </si>
+  <si>
+    <t>R-squared: 90.06 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 32.33 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3395</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1171</t>
+  </si>
+  <si>
+    <t>lnQ         1.434</t>
+  </si>
+  <si>
+    <t>lnQ2        1.055</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.173</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 1.332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.92 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.1603</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m7 &lt;- loadReg(pTHg ~model(7), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(7), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.5937     0.2444 -31.076  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1414     0.1471   7.761  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -4.8470     2.0867  -2.323  0.0103</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5766     0.3813   1.512  0.0750</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.6742     0.6852  -2.443  0.0076</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6671</t>
+  </si>
+  <si>
+    <t>R-squared: 93.67 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 38.63 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0239</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0212</t>
+  </si>
+  <si>
+    <t>lnQ         1.755</t>
+  </si>
+  <si>
+    <t>DECTIME     5.882</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 1.524</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.614</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.01 0.02 0.06 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -18.88 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.2206</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m8 &lt;- loadReg(pTHg ~model(8), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(8), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m8</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.70531    0.44649 -17.257  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.13819    0.15544   7.322  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02556    0.08354   0.306  0.6865</t>
+  </si>
+  <si>
+    <t>DECTIME     -5.10335    2.35452  -2.167  0.0110</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.57552    0.40212   1.431  0.0740</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.75916    0.77401  -2.273  0.0083</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7418</t>
+  </si>
+  <si>
+    <t>R-squared: 93.74 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 38.79 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0113</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0152</t>
+  </si>
+  <si>
+    <t>lnQ         1.763</t>
+  </si>
+  <si>
+    <t>lnQ2        1.208</t>
+  </si>
+  <si>
+    <t>DECTIME     6.735</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -16.29 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.2048</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m9 &lt;- loadReg(pTHg ~model(9), data = pTHg_CR8, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "Combie-Out")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(9), data = pTHg_CR8, flow = "Flow", dates = "Dates",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_CR8m9</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.91443    1.66636 -5.9498  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.14542    0.14764  7.7581  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.01768    0.07951  0.2224  0.7536</t>
+  </si>
+  <si>
+    <t>DECTIME     -6.59211    2.48484 -2.6529  0.0018</t>
+  </si>
+  <si>
+    <t>DECTIME2    28.88782   21.07374  1.3708  0.0681</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  3.10979    1.88775  1.6474  0.0322</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.74779    0.73474 -2.3788  0.0040</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6683</t>
+  </si>
+  <si>
+    <t>R-squared: 95.07 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 42.12 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0644</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0068</t>
+  </si>
+  <si>
+    <t>lnQ          1.765</t>
+  </si>
+  <si>
+    <t>lnQ2         1.215</t>
+  </si>
+  <si>
+    <t>DECTIME      8.325</t>
+  </si>
+  <si>
+    <t>DECTIME2    35.143</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 37.289</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  5.295</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -11.87 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.2352</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +2217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,6 +2312,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,9 +2345,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,7 +2352,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1250,26 +2380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1320,26 +2430,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,8 +2999,8 @@
   <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1918,7 +3008,9 @@
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="14" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1926,24 +3018,24 @@
       <c r="A1" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="43"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
     </row>
@@ -2069,18 +3161,18 @@
     </row>
     <row r="5" spans="1:34" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
       <c r="Y6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2095,22 +3187,22 @@
       <c r="AH6" s="5"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="40"/>
       <c r="Y7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2636,18 +3728,18 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -2664,20 +3756,22 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42" t="s">
+      <c r="B20" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="42"/>
+      <c r="M20" s="40"/>
       <c r="N20" s="23"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2738,48 +3832,69 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="16">
         <v>1</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="38">
+        <v>1E-4</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="I22" s="16">
+        <v>66.91</v>
+      </c>
+      <c r="J22" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-18.73</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.1293</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="Z22" s="10"/>
+      <c r="AA22" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="11"/>
+      <c r="B23" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.30769999999999997</v>
+      </c>
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2792,30 +3907,49 @@
       <c r="G23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
+      <c r="H23" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I23" s="36">
+        <v>69.28</v>
+      </c>
+      <c r="J23" s="36">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0.3523</v>
+      </c>
+      <c r="L23" s="36">
+        <v>-9.9670000000000005</v>
+      </c>
+      <c r="M23" s="36">
+        <v>-7.3400000000000007E-2</v>
+      </c>
       <c r="N23" s="23"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="O23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>287</v>
+      </c>
       <c r="Z23" s="10"/>
+      <c r="AA23" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
+      <c r="B24" s="12">
+        <v>1E-4</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>0.28870000000000001</v>
+      </c>
       <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
@@ -2825,25 +3959,42 @@
       <c r="G24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="H24" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I24" s="12">
+        <v>69.47</v>
+      </c>
+      <c r="J24" s="36">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.3105</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-17.36</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.12559999999999999</v>
+      </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="O24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="Z24" s="10"/>
+      <c r="AA24" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
+      <c r="B25" s="12">
+        <v>1E-4</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>19</v>
@@ -2854,30 +4005,55 @@
       <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
+      <c r="F25" s="12">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I25" s="36">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="J25" s="36">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="L25" s="36">
+        <v>-18.68</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="N25" s="23"/>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="O25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>323</v>
+      </c>
       <c r="Z25" s="10"/>
+      <c r="AA25" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>5</v>
       </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0.4496</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>19</v>
       </c>
@@ -2887,128 +4063,243 @@
       <c r="G26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
+      <c r="H26" s="12">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I26" s="36">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="J26" s="36">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K26" s="36">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="L26" s="36">
+        <v>-15.6</v>
+      </c>
+      <c r="M26" s="36">
+        <v>8.8080000000000006E-2</v>
+      </c>
       <c r="N26" s="23"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="O26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>344</v>
+      </c>
       <c r="Z26" s="10"/>
+      <c r="AA26" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>6</v>
       </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="35"/>
+      <c r="B27" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.2601</v>
+      </c>
       <c r="D27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
+      <c r="F27" s="12">
+        <v>0.7097</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="I27" s="36">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="J27" s="36">
+        <v>2.41E-2</v>
+      </c>
+      <c r="K27" s="36">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="L27" s="36">
+        <v>-10.53</v>
+      </c>
+      <c r="M27" s="36">
+        <v>-5.423E-2</v>
+      </c>
       <c r="N27" s="23"/>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="O27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="Z27" s="10"/>
+      <c r="AA27" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>7</v>
       </c>
-      <c r="B28" s="16">
-        <v>0</v>
+      <c r="B28" s="12">
+        <v>1E-4</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>1.0200000000000001E-2</v>
+      </c>
       <c r="E28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
+      <c r="F28" s="12">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="G28" s="36">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I28" s="36">
+        <v>79.56</v>
+      </c>
+      <c r="J28" s="36">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="K28" s="36">
+        <v>-8.7099999999999997E-2</v>
+      </c>
+      <c r="L28" s="36">
+        <v>-22.46</v>
+      </c>
+      <c r="M28" s="36">
+        <v>0.2918</v>
+      </c>
       <c r="N28" s="23"/>
-      <c r="O28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="O28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="Z28" s="10"/>
+      <c r="AA28" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>8</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <v>0</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="36">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.32E-2</v>
+      </c>
       <c r="E29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="F29" s="12">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I29" s="36">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="J29" s="36">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K29" s="36">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="L29" s="36">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="M29" s="36">
+        <v>0.26819999999999999</v>
+      </c>
       <c r="N29" s="23"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="O29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="Z29" s="10"/>
+      <c r="AA29" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>9</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <v>0</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="16" t="s">
+      <c r="C30" s="12">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E30" s="12">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F30" s="12">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="I30" s="36">
+        <v>88.5</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K30" s="36">
+        <v>-0.23619999999999999</v>
+      </c>
+      <c r="L30" s="36">
+        <v>-12.93</v>
+      </c>
+      <c r="M30" s="36">
+        <v>0.38329999999999997</v>
+      </c>
       <c r="N30" s="23"/>
-      <c r="O30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="O30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>429</v>
+      </c>
       <c r="Z30" s="10"/>
+      <c r="AA30" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
@@ -3028,38 +4319,40 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42" t="s">
+      <c r="B33" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M33" s="42"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:28" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3110,48 +4403,67 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="12">
         <v>1</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="16" t="s">
+      <c r="C35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="AB35" s="15"/>
+      <c r="I35" s="12">
+        <v>89.1</v>
+      </c>
+      <c r="J35" s="12">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="L35" s="12">
+        <v>-4.1269999999999998</v>
+      </c>
+      <c r="M35" s="12">
+        <v>-1.234E-2</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>2</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>0</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11">
+        <v>0.63490000000000002</v>
+      </c>
       <c r="D36" s="9" t="s">
         <v>19</v>
       </c>
@@ -3164,30 +4476,49 @@
       <c r="G36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="I36" s="37">
+        <v>89.28</v>
+      </c>
+      <c r="J36" s="37">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0.2505</v>
+      </c>
+      <c r="L36" s="37">
+        <v>-13.3</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0.1012</v>
+      </c>
       <c r="N36" s="23"/>
-      <c r="O36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="AB36" s="15"/>
+      <c r="O36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>3</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <v>0</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13">
+        <v>0.84930000000000005</v>
+      </c>
       <c r="E37" s="9" t="s">
         <v>19</v>
       </c>
@@ -3197,24 +4528,41 @@
       <c r="G37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="I37" s="12">
+        <v>89.13</v>
+      </c>
+      <c r="J37" s="37">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="L37" s="12">
+        <v>-3.4660000000000002</v>
+      </c>
+      <c r="M37" s="12">
+        <v>-1.8749999999999999E-2</v>
+      </c>
       <c r="N37" s="12"/>
-      <c r="O37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="AB37" s="15"/>
+      <c r="O37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>0</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3226,30 +4574,55 @@
       <c r="E38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="16" t="s">
+      <c r="F38" s="12">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="I38" s="37">
+        <v>89.87</v>
+      </c>
+      <c r="J38" s="37">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="K38" s="37">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="L38" s="37">
+        <v>-3.1629999999999998</v>
+      </c>
+      <c r="M38" s="37">
+        <v>1.162E-2</v>
+      </c>
       <c r="N38" s="23"/>
-      <c r="O38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="AB38" s="15"/>
+      <c r="O38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>5</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>0</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="C39" s="37">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0.91239999999999999</v>
+      </c>
       <c r="E39" s="9" t="s">
         <v>19</v>
       </c>
@@ -3259,128 +4632,245 @@
       <c r="G39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="I39" s="37">
+        <v>89.28</v>
+      </c>
+      <c r="J39" s="37">
+        <v>3.73E-2</v>
+      </c>
+      <c r="K39" s="37">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="L39" s="37">
+        <v>-12.31</v>
+      </c>
+      <c r="M39" s="37">
+        <v>9.2969999999999997E-2</v>
+      </c>
       <c r="N39" s="23"/>
-      <c r="O39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="AB39" s="15"/>
+      <c r="O39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>6</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>0</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="37">
+        <v>0.60289999999999999</v>
+      </c>
       <c r="D40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="16" t="s">
+      <c r="F40" s="12">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="G40" s="37">
+        <v>0.4108</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="I40" s="37">
+        <v>90.06</v>
+      </c>
+      <c r="J40" s="37">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0.1171</v>
+      </c>
+      <c r="L40" s="37">
+        <v>-12.92</v>
+      </c>
+      <c r="M40" s="37">
+        <v>0.1603</v>
+      </c>
       <c r="N40" s="23"/>
-      <c r="O40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="AB40" s="15"/>
+      <c r="O40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="16">
         <v>7</v>
       </c>
       <c r="B41" s="16">
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="35"/>
+      <c r="C41" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G41" s="16">
+        <v>7.6E-3</v>
+      </c>
       <c r="H41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="AB41" s="15"/>
+      <c r="I41" s="16">
+        <v>93.67</v>
+      </c>
+      <c r="J41" s="16">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="K41" s="16">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="L41" s="16">
+        <v>-18.88</v>
+      </c>
+      <c r="M41" s="37">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>8</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>0</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="37">
+        <v>0.6865</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="E42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="16" t="s">
+      <c r="F42" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="I42" s="37">
+        <v>93.74</v>
+      </c>
+      <c r="J42" s="37">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K42" s="37">
+        <v>1.52E-2</v>
+      </c>
+      <c r="L42" s="37">
+        <v>-16.29</v>
+      </c>
+      <c r="M42" s="37">
+        <v>0.20480000000000001</v>
+      </c>
       <c r="N42" s="23"/>
-      <c r="O42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="AB42" s="15"/>
+      <c r="O42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>9</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>0</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="16" t="s">
+      <c r="C43" s="12">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="F43" s="12">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="I43" s="37">
+        <v>95.07</v>
+      </c>
+      <c r="J43" s="12">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="K43" s="37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="L43" s="37">
+        <v>-11.87</v>
+      </c>
+      <c r="M43" s="37">
+        <v>0.23519999999999999</v>
+      </c>
       <c r="N43" s="23"/>
-      <c r="O43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="AB43" s="15"/>
+      <c r="O43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N44" s="14"/>
@@ -3389,36 +4879,36 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="43"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M46" s="42"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="23"/>
     </row>
     <row r="47" spans="1:28" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3743,36 +5233,36 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="42" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M59" s="42"/>
+      <c r="M59" s="40"/>
       <c r="N59" s="23"/>
     </row>
     <row r="60" spans="1:28" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4097,36 +5587,36 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="42" t="s">
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M73" s="42"/>
+      <c r="M73" s="40"/>
       <c r="N73" s="23"/>
     </row>
     <row r="74" spans="1:28" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4451,11 +5941,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="B45:K45"/>
     <mergeCell ref="B72:K72"/>
     <mergeCell ref="B73:K73"/>
     <mergeCell ref="L73:M73"/>
@@ -4472,131 +5957,136 @@
     <mergeCell ref="B58:K58"/>
     <mergeCell ref="B59:K59"/>
     <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <conditionalFormatting sqref="L105:L1048576">
-    <cfRule type="cellIs" dxfId="36" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="67" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="68" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="69" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84:K1048576 K44 K70:K71">
-    <cfRule type="cellIs" dxfId="33" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="63" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M17">
-    <cfRule type="cellIs" dxfId="31" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="58" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="59" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="60" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L17">
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="56" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="57" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G17">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H17">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J17">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J43 J22:J30">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M30">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L30">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:M43">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L43">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75:M83 M61:M69 M48:M56">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:L83 L61:L69 L48:L56">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7082,26 +8572,4916 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782ED82D-3F7D-4A0C-8395-394E001D5349}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A524"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="24"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="24"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="24"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="24"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="24"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="24"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="24"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="24"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="24"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="24"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="24"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="24"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="24"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="24"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="24"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="24"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="24"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="24"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="24"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="24"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="24"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="24"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="24"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="24"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="24"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="24"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="24"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="24"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="24"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="24"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="24"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="24"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="24"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="24"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="24"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="24"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="24"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="24"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="25" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="24"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="24"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="24"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="24"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="24"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="24"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="24"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="24"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="24"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="24"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="24"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="24"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="24"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="24"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="24"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="24"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="24"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="24"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="24"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AE4E45-9E61-4DDD-B03E-13EE650472F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A524"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="24"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="24"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="24"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="24"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="24"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="24"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="24"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="24"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="24"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="24"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="24"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="24"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="24"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="24"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="24"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="24"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="24"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="24"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="24"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="24"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="24"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="24"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="24"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="26" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="26" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="24"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="26" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="26" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="24"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="24"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="24"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="24"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="24"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="24"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="24"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="24"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="24"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="26" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="24"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="24"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="24"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="24"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="24"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="25" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="24"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="24"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="24"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="24"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="24"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="24"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="24"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="24"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="24"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="24"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="24"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="24"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="24"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="24"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="24"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="24"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="24"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="26" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="24"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="24"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>